--- a/Doc/JournauxTravail/Journal_Travail_Guillaume.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Guillaume.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C10DE9-F6C3-4F5E-B7B2-A861FB3EACFF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -36,19 +37,73 @@
     <t>Journal de travail</t>
   </si>
   <si>
-    <t>Albert Einstein</t>
-  </si>
-  <si>
-    <t>blablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablabla</t>
-  </si>
-  <si>
-    <t>blablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablabla</t>
+    <t>Guillaume Zaretti</t>
+  </si>
+  <si>
+    <t>Discussion sur la proposition du sujets</t>
+  </si>
+  <si>
+    <t>Lecture du sujet</t>
+  </si>
+  <si>
+    <t>Scéance en classe avec le groupe</t>
+  </si>
+  <si>
+    <t>Demande et ouverture d'un ticket pour une machinne virtuelle en DMZ + Discution</t>
+  </si>
+  <si>
+    <t>Test sur le compte infomaniak</t>
+  </si>
+  <si>
+    <t>Ouvertur d'un ticket pour un serveur VPS gratuit chez infomaniake et recherche chez ovh et concurants</t>
+  </si>
+  <si>
+    <t>Connexion sur AWS Amazone</t>
+  </si>
+  <si>
+    <t>Discutions avec le groupe</t>
+  </si>
+  <si>
+    <t>Test avec PostgreSQL et hibernate</t>
+  </si>
+  <si>
+    <t>Test avec SQLite et hibernate</t>
+  </si>
+  <si>
+    <t>Divers test de fesabilité et organisation de projet pour un même modèle</t>
+  </si>
+  <si>
+    <t>Réflexion sur le mappage des antitées entre chaque couche</t>
+  </si>
+  <si>
+    <t>Mail à RRH suite au ticket du service informatique</t>
+  </si>
+  <si>
+    <t>Connexion à postgresql sur AWS Amazone, temp de latance innaxeptable. Solution ok pour 10 jours max</t>
+  </si>
+  <si>
+    <t>Création du script de création de table uniquement postgresql</t>
+  </si>
+  <si>
+    <t>Finition du script de création postgresql</t>
+  </si>
+  <si>
+    <t>Création du script de création des tables pour sqlite</t>
+  </si>
+  <si>
+    <t>Postgesql et Sqlite avec java</t>
+  </si>
+  <si>
+    <t>Intégration d'une entité avec hibernate pour la scéance</t>
+  </si>
+  <si>
+    <t>Résolution du problème non clé primaire et script</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
@@ -138,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -157,6 +212,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -439,15 +502,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -457,10 +521,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
@@ -476,22 +540,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
         <v>43150</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="8">
         <v>1.25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
         <v>43152</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="8">
@@ -499,137 +563,325 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="3">
+        <v>43153</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="8"/>
+      <c r="A8" s="3">
+        <v>43154</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>43155</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="8"/>
+      <c r="A10" s="3">
+        <v>43178</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>43180</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="8"/>
+      <c r="A12" s="10">
+        <v>43180</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>43181</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="3">
+        <v>43182</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="8"/>
+      <c r="A15" s="3">
+        <v>43182</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="8"/>
+      <c r="A16" s="3">
+        <v>43182</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="8"/>
+      <c r="A17" s="3">
+        <v>43182</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>43182</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="8"/>
+      <c r="A19" s="3">
+        <v>43182</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="8"/>
+      <c r="A20" s="3">
+        <v>43182</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="8"/>
+      <c r="A21" s="3">
+        <v>43182</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="8"/>
+      <c r="A22" s="3">
+        <v>43183</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="8"/>
+      <c r="A23" s="3">
+        <v>43185</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="8"/>
+      <c r="A24" s="11">
+        <v>43185</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="8"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="8"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="8"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="5" t="s">
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="8"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="8"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="8"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="8"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="8"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="8"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="8"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="8"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="3"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="8"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="3"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="8"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="9">
-        <f>SUM(C5:C31)</f>
-        <v>3</v>
+      <c r="C48" s="9">
+        <f>SUM(C5:C47)</f>
+        <v>19.349999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/JournauxTravail/Journal_Travail_Guillaume.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Guillaume.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C10DE9-F6C3-4F5E-B7B2-A861FB3EACFF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3D695D-5645-470E-8ED2-CCDB3709D976}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>Résolution du problème non clé primaire et script</t>
+  </si>
+  <si>
+    <t>Problème de gitcraken</t>
   </si>
 </sst>
 </file>
@@ -505,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,9 +764,15 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="8"/>
+      <c r="A25" s="11">
+        <v>43339</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
@@ -881,7 +890,7 @@
       </c>
       <c r="C48" s="9">
         <f>SUM(C5:C47)</f>
-        <v>19.349999999999998</v>
+        <v>19.849999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/JournauxTravail/Journal_Travail_Guillaume.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Guillaume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3D695D-5645-470E-8ED2-CCDB3709D976}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3975304E-DE62-4AD8-AFA6-223F3429A585}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -101,6 +101,15 @@
   </si>
   <si>
     <t>Problème de gitcraken</t>
+  </si>
+  <si>
+    <t>Mise en place d'un template de projet</t>
+  </si>
+  <si>
+    <t>Configuration du projet template avec hibernate sans mvn</t>
+  </si>
+  <si>
+    <t>Rapport</t>
   </si>
 </sst>
 </file>
@@ -508,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -775,19 +784,37 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="8"/>
+      <c r="A26" s="11">
+        <v>43340</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="8"/>
+      <c r="A27" s="11">
+        <v>43343</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="8"/>
+      <c r="A28" s="11">
+        <v>43193</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
@@ -890,7 +917,7 @@
       </c>
       <c r="C48" s="9">
         <f>SUM(C5:C47)</f>
-        <v>19.849999999999998</v>
+        <v>22.249999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/JournauxTravail/Journal_Travail_Guillaume.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Guillaume.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3975304E-DE62-4AD8-AFA6-223F3429A585}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA0C234-FA5D-48F1-BE05-F37600F2FD7D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -518,7 +518,7 @@
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Doc/JournauxTravail/Journal_Travail_Guillaume.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Guillaume.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90B3AD2-93C3-462D-A615-35B88FFD3E79}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B76EAD0-BFA6-46BB-8938-E92721271B93}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -46,69 +46,27 @@
     <t>Lecture du sujet</t>
   </si>
   <si>
-    <t>Scéance en classe avec le groupe</t>
-  </si>
-  <si>
-    <t>Demande et ouverture d'un ticket pour une machinne virtuelle en DMZ + Discution</t>
-  </si>
-  <si>
     <t>Test sur le compte infomaniak</t>
   </si>
   <si>
-    <t>Ouvertur d'un ticket pour un serveur VPS gratuit chez infomaniake et recherche chez ovh et concurants</t>
-  </si>
-  <si>
     <t>Connexion sur AWS Amazone</t>
   </si>
   <si>
     <t>Discutions avec le groupe</t>
   </si>
   <si>
-    <t>Test avec PostgreSQL et hibernate</t>
-  </si>
-  <si>
-    <t>Test avec SQLite et hibernate</t>
-  </si>
-  <si>
-    <t>Divers test de fesabilité et organisation de projet pour un même modèle</t>
-  </si>
-  <si>
-    <t>Réflexion sur le mappage des antitées entre chaque couche</t>
-  </si>
-  <si>
     <t>Mail à RRH suite au ticket du service informatique</t>
   </si>
   <si>
-    <t>Connexion à postgresql sur AWS Amazone, temp de latance innaxeptable. Solution ok pour 10 jours max</t>
-  </si>
-  <si>
     <t>Création du script de création de table uniquement postgresql</t>
   </si>
   <si>
-    <t>Finition du script de création postgresql</t>
-  </si>
-  <si>
-    <t>Création du script de création des tables pour sqlite</t>
-  </si>
-  <si>
-    <t>Postgesql et Sqlite avec java</t>
-  </si>
-  <si>
-    <t>Intégration d'une entité avec hibernate pour la scéance</t>
-  </si>
-  <si>
     <t>Résolution du problème non clé primaire et script</t>
   </si>
   <si>
     <t>Problème de gitcraken</t>
   </si>
   <si>
-    <t>Mise en place d'un template de projet</t>
-  </si>
-  <si>
-    <t>Configuration du projet template avec hibernate sans mvn</t>
-  </si>
-  <si>
     <t>Rapport</t>
   </si>
   <si>
@@ -130,12 +88,6 @@
     <t>rapport</t>
   </si>
   <si>
-    <t>développement du crud et test sur ClientRepository et mise en place de la classe ORM</t>
-  </si>
-  <si>
-    <t>développement et test de ClientRepository pour derby</t>
-  </si>
-  <si>
     <t>Problème avec les id généré automatiquement dans derby</t>
   </si>
   <si>
@@ -145,18 +97,9 @@
     <t>bankaccount PG</t>
   </si>
   <si>
-    <t xml:space="preserve">relllation et propriété de navigation </t>
-  </si>
-  <si>
-    <t>Récurences</t>
-  </si>
-  <si>
     <t>Refactoring session et transaction</t>
   </si>
   <si>
-    <t>ajout de fonction suplémentaire pour le client et pour les catégories</t>
-  </si>
-  <si>
     <t>Ajout des transactions repositories</t>
   </si>
   <si>
@@ -166,42 +109,18 @@
     <t>Modification du champ password en db et dans l'application</t>
   </si>
   <si>
-    <t>Tests et test du username et password</t>
-  </si>
-  <si>
     <t>ajout de budget repository</t>
   </si>
   <si>
-    <t>Correction et ajout de budget entity</t>
-  </si>
-  <si>
-    <t>ajout de category repositoty</t>
-  </si>
-  <si>
-    <t>ajout d'example d'utilisation</t>
-  </si>
-  <si>
     <t>Séances de groupes</t>
   </si>
   <si>
-    <t>Modification des categories</t>
-  </si>
-  <si>
     <t>Résolution des problèmes de sessions et transaction</t>
   </si>
   <si>
     <t>Recherche sur les problèmes de sessions et transaction</t>
   </si>
   <si>
-    <t>Ajout de toutes les interfaces entitées à mapper aux couche supérieurs</t>
-  </si>
-  <si>
-    <t>Refocatoring sesession et transaciton dans orm</t>
-  </si>
-  <si>
-    <t>Powwer point présentation intérmédiaire et préparation pour la présentation</t>
-  </si>
-  <si>
     <t>Commentaires</t>
   </si>
   <si>
@@ -211,22 +130,181 @@
     <t>fichier de test</t>
   </si>
   <si>
-    <t>Probleme d'execution</t>
-  </si>
-  <si>
-    <t>budget partagé et categories de budgets</t>
-  </si>
-  <si>
-    <t>Supression d'un id</t>
-  </si>
-  <si>
     <t>ajout de méthodes associatives</t>
   </si>
   <si>
     <t>Test et intégration de JPA, finalement problème de structure de projet avec JPA, choix de laisser tomber JPA</t>
   </si>
   <si>
-    <t>Debugging de la transaction et de la session dans les ripository</t>
+    <t>Buld du fichier jar</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Conclusions</t>
+  </si>
+  <si>
+    <t>Test avec PostgreSQL et Hibernate</t>
+  </si>
+  <si>
+    <t>Test avec SQLite et Hibernate</t>
+  </si>
+  <si>
+    <t>Divers test de faisabilités et organisation de projet pour un même modèle</t>
+  </si>
+  <si>
+    <t>Séances en classe avec le groupe</t>
+  </si>
+  <si>
+    <t>Demande et ouverture d'un ticket pour une machine virtuelle en DMZ + Discussion</t>
+  </si>
+  <si>
+    <t>Ouverture d'un ticket pour un serveur VPS gratuit chez infomaniake et recherche chez ovh et concourants</t>
+  </si>
+  <si>
+    <t>Réflexion sur le mappage des antithées entre chaque couche</t>
+  </si>
+  <si>
+    <t>Connexion à PostgreSQL sur AWS Amazone, temp de instances . Solution ok pour 10 jours max</t>
+  </si>
+  <si>
+    <t>Finition du script de création PostgreSQL</t>
+  </si>
+  <si>
+    <t>Création du script de création des tables pour SQLite</t>
+  </si>
+  <si>
+    <t>PostgreSQL et SQLite avec java</t>
+  </si>
+  <si>
+    <t>Intégration d'une entité avec Hibernate pour la séance</t>
+  </si>
+  <si>
+    <t>Mise en place d'un Template de projet</t>
+  </si>
+  <si>
+    <t>Configuration du projet Template avec Hibernate sans mvn</t>
+  </si>
+  <si>
+    <t>développement du crud et test sur Client Repository et mise en place de la classe ORM</t>
+  </si>
+  <si>
+    <t>développement et test de Client Repository pour derby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relation et propriété de navigation </t>
+  </si>
+  <si>
+    <t>Powwer point présentation intermédiaire et préparation pour la présentation</t>
+  </si>
+  <si>
+    <t>Refocatoring session et transaction dans orm</t>
+  </si>
+  <si>
+    <t>Ajout de toutes les interfaces entités à mapper aux couche supérieurs</t>
+  </si>
+  <si>
+    <t>Modification des catégories</t>
+  </si>
+  <si>
+    <t>ajout d'exemple d'utilisation</t>
+  </si>
+  <si>
+    <t>ajout de catégorie repository</t>
+  </si>
+  <si>
+    <t>Correction et ajout de budget entité</t>
+  </si>
+  <si>
+    <t>Tests et test du user Name et password</t>
+  </si>
+  <si>
+    <t>ajout de fonction supplémentaire pour le client et pour les catégories</t>
+  </si>
+  <si>
+    <t>Récurrences</t>
+  </si>
+  <si>
+    <t>Debugging de la transaction et de la session dans les repository</t>
+  </si>
+  <si>
+    <t>Suppression d'un id</t>
+  </si>
+  <si>
+    <t>budget partagé et catégories de budgets</t>
+  </si>
+  <si>
+    <t>Problèmes d'exécution</t>
+  </si>
+  <si>
+    <t>Conversation trigger PostgreSQL en trigger derby</t>
+  </si>
+  <si>
+    <t>Conversation trigger PostgreSQL en trigger derby trop compliqué</t>
+  </si>
+  <si>
+    <t>JDT, correction, rapport etc…</t>
+  </si>
+  <si>
+    <t>Semaine 1</t>
+  </si>
+  <si>
+    <t>Total des heures par semaine</t>
+  </si>
+  <si>
+    <t>Semaine 2</t>
+  </si>
+  <si>
+    <t>Semaine 3</t>
+  </si>
+  <si>
+    <t>Semaine 4</t>
+  </si>
+  <si>
+    <t>Semaine 5</t>
+  </si>
+  <si>
+    <t>Semaine 6</t>
+  </si>
+  <si>
+    <t>Semaine 7</t>
+  </si>
+  <si>
+    <t>Semaine 8</t>
+  </si>
+  <si>
+    <t>Semaine 9</t>
+  </si>
+  <si>
+    <t>Semaine 10</t>
+  </si>
+  <si>
+    <t>Semaine 11</t>
+  </si>
+  <si>
+    <t>Semaine 12</t>
+  </si>
+  <si>
+    <t>Semaine 13</t>
+  </si>
+  <si>
+    <t>résumé</t>
+  </si>
+  <si>
+    <t>Descritpion, Test de faisabilité, Séances, test pgsql,test hibernate</t>
+  </si>
+  <si>
+    <t>Cahier des charges, Création des scriptes SQL</t>
+  </si>
+  <si>
+    <t>DAL, Documentations</t>
+  </si>
+  <si>
+    <t>choix des framework et technologies, etudes des technologies, Modélisation application</t>
+  </si>
+  <si>
+    <t>Modélisation application</t>
   </si>
 </sst>
 </file>
@@ -633,33 +711,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67.21875" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="15"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -670,7 +753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>43150</v>
       </c>
@@ -680,8 +763,14 @@
       <c r="C5" s="8">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>43152</v>
       </c>
@@ -691,288 +780,370 @@
       <c r="C6" s="8">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H6" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>43153</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C7" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H7" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>43154</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C8" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>43155</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C9" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>43178</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C10" s="8">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>43180</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C11" s="8">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H11" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>43180</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" s="8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H12" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>43181</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C13" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H13" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>43182</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C14" s="8">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H14" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>43182</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C15" s="8">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H15" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>43182</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C16" s="8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H16" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>43182</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C17" s="8">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H17" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>43182</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C18" s="8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H18" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>43182</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C19" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>43182</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C20" s="8">
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>43182</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C21" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>43182</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="C22" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>43183</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C23" s="8">
         <v>0.7</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>43185</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C24" s="8">
         <v>0.8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>43185</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C25" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>43186</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C26" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>43187</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C27" s="8">
         <v>0.4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>43190</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C28" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>43193</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C29" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>43194</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C30" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>43225</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C31" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>43226</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C32" s="8">
         <v>1</v>
@@ -983,7 +1154,7 @@
         <v>43201</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C33" s="8">
         <v>1</v>
@@ -994,7 +1165,7 @@
         <v>43202</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C34" s="8">
         <v>1</v>
@@ -1005,7 +1176,7 @@
         <v>43203</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C35" s="8">
         <v>4.5</v>
@@ -1016,7 +1187,7 @@
         <v>43204</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C36" s="8">
         <v>0.5</v>
@@ -1027,7 +1198,7 @@
         <v>43204</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C37" s="8">
         <v>1</v>
@@ -1038,7 +1209,7 @@
         <v>43204</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C38" s="8">
         <v>3</v>
@@ -1049,7 +1220,7 @@
         <v>43205</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C39" s="8">
         <v>1</v>
@@ -1060,7 +1231,7 @@
         <v>43205</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C40" s="8">
         <v>2</v>
@@ -1071,7 +1242,7 @@
         <v>43205</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C41" s="8">
         <v>1</v>
@@ -1082,18 +1253,18 @@
         <v>43205</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C42" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="11">
         <v>43206</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43" s="8">
         <v>2</v>
@@ -1104,18 +1275,18 @@
         <v>43206</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C44" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="11">
         <v>43206</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C45" s="8">
         <v>1</v>
@@ -1126,7 +1297,7 @@
         <v>43209</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C46" s="8">
         <v>2</v>
@@ -1137,7 +1308,7 @@
         <v>43215</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C47" s="8">
         <v>1</v>
@@ -1148,7 +1319,7 @@
         <v>43219</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C48" s="8">
         <v>0.5</v>
@@ -1159,7 +1330,7 @@
         <v>43219</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C49" s="8">
         <v>2</v>
@@ -1170,7 +1341,7 @@
         <v>43219</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C50" s="8">
         <v>0.5</v>
@@ -1181,7 +1352,7 @@
         <v>43219</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C51" s="8">
         <v>0.5</v>
@@ -1192,7 +1363,7 @@
         <v>43219</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C52" s="8">
         <v>0.2</v>
@@ -1203,7 +1374,7 @@
         <v>43219</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C53" s="8">
         <v>0.5</v>
@@ -1214,7 +1385,7 @@
         <v>43220</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C54" s="8">
         <v>1</v>
@@ -1225,7 +1396,7 @@
         <v>43220</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C55" s="8">
         <v>0.25</v>
@@ -1236,7 +1407,7 @@
         <v>43220</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C56" s="8">
         <v>0.5</v>
@@ -1247,7 +1418,7 @@
         <v>43220</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C57" s="8">
         <v>2</v>
@@ -1258,18 +1429,18 @@
         <v>43221</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C58" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="11">
         <v>43221</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C59" s="8">
         <v>0.5</v>
@@ -1280,7 +1451,7 @@
         <v>43221</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C60" s="8">
         <v>0.5</v>
@@ -1302,7 +1473,7 @@
         <v>43197</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C62" s="8">
         <v>0.5</v>
@@ -1313,7 +1484,7 @@
         <v>43227</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C63" s="8">
         <v>2</v>
@@ -1324,7 +1495,7 @@
         <v>43227</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C64" s="8">
         <v>4</v>
@@ -1335,7 +1506,7 @@
         <v>43227</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C65" s="8">
         <v>1</v>
@@ -1346,7 +1517,7 @@
         <v>43227</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C66" s="8">
         <v>0.5</v>
@@ -1357,7 +1528,7 @@
         <v>43228</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C67" s="8">
         <v>3</v>
@@ -1368,7 +1539,7 @@
         <v>43228</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C68" s="8">
         <v>0.5</v>
@@ -1379,46 +1550,88 @@
         <v>43232</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C69" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="11"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="8"/>
+      <c r="A70" s="11">
+        <v>43234</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="3"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="8"/>
+      <c r="A71" s="11">
+        <v>43235</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="3"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="8"/>
+      <c r="A72" s="11">
+        <v>43236</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C72" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="3"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="8"/>
+      <c r="A73" s="11">
+        <v>43237</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="3"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="8"/>
+      <c r="A74" s="11">
+        <v>43238</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="3"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="8"/>
+      <c r="A75" s="3">
+        <v>43238</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="3"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="8"/>
+      <c r="A76" s="11">
+        <v>43238</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B77" s="5" t="s">
@@ -1426,7 +1639,7 @@
       </c>
       <c r="C77" s="9">
         <f>SUM(C5:C76)</f>
-        <v>79.599999999999994</v>
+        <v>94.1</v>
       </c>
     </row>
   </sheetData>
